--- a/Software/Proyecto/usuarios.xlsx
+++ b/Software/Proyecto/usuarios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,30 +481,30 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Juan Perez</t>
+          <t>Pedro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>13456</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cédula</t>
+          <t>Tarjeta de Identidad</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>juan@example.com</t>
+          <t>pedro@123.com</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -512,43 +512,151 @@
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45745.6697337963</v>
+        <v>45745.71523148148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Harol Hernan Torres Neuta</t>
+          <t>esperanza</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>80145927</t>
+          <t>39638195</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Tarjeta de Identidad</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>esperanza@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>62</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>45745.71662037037</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>28</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>juan</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>39638196</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Cédula</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>harol003@gmail.com</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>40</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>juan@juan.co</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>45</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>45745.67663194444</v>
+      <c r="H4" s="2" t="n">
+        <v>45745.72325231481</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>29</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Adriana</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1022963803</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Cédula</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>admabe29@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>25</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>45745.72896990741</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>prueba</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tarjeta de Identidad</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>preuab@jfkldj.com</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>45</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Femenino</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>45745.73128472222</v>
       </c>
     </row>
   </sheetData>
